--- a/需求规格说明书/merging/DataItems ~ 数据项统计.xlsx
+++ b/需求规格说明书/merging/DataItems ~ 数据项统计.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\TicketManager\需求规格说明书\merging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927F1338-5D39-4193-95C1-258F4613AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40971C8C-D99C-417D-B08B-F74A83011386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="需求分析" sheetId="1" r:id="rId1"/>
+    <sheet name="数据库设计" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="237">
   <si>
     <r>
       <t>名</t>
@@ -889,12 +890,580 @@
     <t>^[0-9a-zA-Z\u4e00-\u9fa5]$</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统输出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父角色ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_count</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">status </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父单编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>20bits</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点列表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancestors</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以字符串形式存储所有的父节点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明此消息属于哪个服务单</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息的发送者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息体</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回复的消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留空表示没有回复的消息</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于鉴别属于用户/企业/运营人员</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>phonenumber</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>md5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加密</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_flag</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标志</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录ip</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_ip</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后登录时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码更新时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd_update_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_by</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号信息更新者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit_info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提及的用户</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>mention</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所有被提及的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时消息目标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_target_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>若非空，表示是一条临时消息，是用于对用户的操作进行回应，不存数据库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>submie_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁创建了这个类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1517,45 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1046,7 +1654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1088,8 +1696,23 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1099,6 +1722,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,9 +2017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1438,426 +2073,426 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="7" t="s">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3" t="s">
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="10" t="s">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="J14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -1870,13 +2505,13 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1912,7 +2547,7 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +2581,7 @@
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
@@ -1980,7 +2615,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2649,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2048,7 +2683,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2082,7 +2717,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="12" t="s">
         <v>53</v>
       </c>
@@ -2116,7 +2751,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="12" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2783,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="12" t="s">
         <v>56</v>
       </c>
@@ -2180,7 +2815,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="10" t="s">
         <v>58</v>
       </c>
@@ -2214,7 +2849,7 @@
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="10" t="s">
         <v>48</v>
       </c>
@@ -2246,7 +2881,7 @@
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -2292,7 +2927,7 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2328,7 +2963,7 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="10" t="s">
         <v>63</v>
       </c>
@@ -2362,7 +2997,7 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="12" t="s">
         <v>65</v>
       </c>
@@ -2396,7 +3031,7 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="12" t="s">
         <v>68</v>
       </c>
@@ -2432,7 +3067,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="12" t="s">
         <v>74</v>
       </c>
@@ -2468,7 +3103,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="12" t="s">
         <v>77</v>
       </c>
@@ -2504,7 +3139,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="12" t="s">
         <v>81</v>
       </c>
@@ -2540,7 +3175,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="10" t="s">
         <v>126</v>
       </c>
@@ -2572,7 +3207,7 @@
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="12" t="s">
         <v>127</v>
       </c>
@@ -2618,7 +3253,7 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -2654,7 +3289,7 @@
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="12" t="s">
         <v>99</v>
       </c>
@@ -2702,7 +3337,7 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -2738,7 +3373,7 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="12" t="s">
         <v>101</v>
       </c>
@@ -2772,7 +3407,7 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="12" t="s">
         <v>102</v>
       </c>
@@ -2806,7 +3441,7 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="12" t="s">
         <v>103</v>
       </c>
@@ -2854,7 +3489,7 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -2890,7 +3525,7 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="10" t="s">
         <v>116</v>
       </c>
@@ -2924,7 +3559,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="12" t="s">
         <v>119</v>
       </c>
@@ -2958,7 +3593,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +3627,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="12" t="s">
         <v>122</v>
       </c>
@@ -3038,7 +3673,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -3072,7 +3707,7 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="12" t="s">
         <v>111</v>
       </c>
@@ -3106,7 +3741,7 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="12" t="s">
         <v>113</v>
       </c>
@@ -3323,8 +3958,8 @@
   <mergeCells count="8">
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="A29:A37"/>
     <mergeCell ref="A42:A45"/>
@@ -3334,4 +3969,2698 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B661AD3-5B4B-4077-A5F4-64F826542876}">
+  <dimension ref="A1:M219"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="5.625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="60.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="20.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="100.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="13"/>
+      <c r="M40" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
+        <v>20</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
+        <v>20</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="4"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
+        <v>20</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="19"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="19"/>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="4"/>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22"/>
+      <c r="B75" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22"/>
+      <c r="B76" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="22"/>
+      <c r="B77" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="4"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="4"/>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22"/>
+      <c r="B81" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
+        <v>20</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L83" s="13"/>
+      <c r="M83" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22"/>
+      <c r="B84" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="19"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="19"/>
+    </row>
+    <row r="86" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="A35:A45"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/需求规格说明书/merging/DataItems ~ 数据项统计.xlsx
+++ b/需求规格说明书/merging/DataItems ~ 数据项统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programs\TicketManager\需求规格说明书\merging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40971C8C-D99C-417D-B08B-F74A83011386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC22F8F-4EA7-41E1-A2D9-2E9E5C500AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="267">
   <si>
     <r>
       <t>名</t>
@@ -1456,6 +1456,171 @@
   </si>
   <si>
     <t>回复模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_address</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>additional_info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业的所有者</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>不在数据库设计范围之内</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否编辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorization_info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint_user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Markdown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式，配有编辑器</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务单名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket_title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_ticket</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>found_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_master</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司负责人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务单编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern_trigger</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1714,6 +1879,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1725,15 +1899,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,7 +2238,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2109,7 +2274,7 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>84</v>
       </c>
@@ -2145,7 +2310,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>89</v>
       </c>
@@ -2179,7 +2344,7 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
@@ -2213,7 +2378,7 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="10" t="s">
         <v>104</v>
       </c>
@@ -2245,7 +2410,7 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="10" t="s">
         <v>125</v>
       </c>
@@ -2279,7 +2444,7 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="12" t="s">
         <v>106</v>
       </c>
@@ -2311,7 +2476,7 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="10" t="s">
         <v>94</v>
       </c>
@@ -2359,7 +2524,7 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="27" t="s">
         <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2395,7 +2560,7 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2429,7 +2594,7 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2463,7 +2628,7 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>107</v>
       </c>
@@ -2511,7 +2676,7 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="27" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2547,7 +2712,7 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
@@ -2581,7 +2746,7 @@
       <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
@@ -2615,7 +2780,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="12" t="s">
         <v>41</v>
       </c>
@@ -2649,7 +2814,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2848,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2717,7 +2882,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
         <v>53</v>
       </c>
@@ -2751,7 +2916,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="12" t="s">
         <v>55</v>
       </c>
@@ -2783,7 +2948,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="12" t="s">
         <v>56</v>
       </c>
@@ -2815,7 +2980,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="10" t="s">
         <v>58</v>
       </c>
@@ -2849,7 +3014,7 @@
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="10" t="s">
         <v>48</v>
       </c>
@@ -2881,7 +3046,7 @@
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -2927,7 +3092,7 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2963,7 +3128,7 @@
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="10" t="s">
         <v>63</v>
       </c>
@@ -2997,7 +3162,7 @@
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="12" t="s">
         <v>65</v>
       </c>
@@ -3031,7 +3196,7 @@
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="12" t="s">
         <v>68</v>
       </c>
@@ -3067,7 +3232,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="12" t="s">
         <v>74</v>
       </c>
@@ -3103,7 +3268,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="12" t="s">
         <v>77</v>
       </c>
@@ -3139,7 +3304,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="12" t="s">
         <v>81</v>
       </c>
@@ -3175,7 +3340,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="10" t="s">
         <v>126</v>
       </c>
@@ -3207,7 +3372,7 @@
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="12" t="s">
         <v>127</v>
       </c>
@@ -3253,7 +3418,7 @@
       <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -3289,7 +3454,7 @@
       <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="12" t="s">
         <v>99</v>
       </c>
@@ -3337,7 +3502,7 @@
       <c r="L41" s="4"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3373,7 +3538,7 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="12" t="s">
         <v>101</v>
       </c>
@@ -3407,7 +3572,7 @@
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="12" t="s">
         <v>102</v>
       </c>
@@ -3441,7 +3606,7 @@
       <c r="L44" s="4"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="12" t="s">
         <v>103</v>
       </c>
@@ -3489,7 +3654,7 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="24" t="s">
         <v>134</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -3525,7 +3690,7 @@
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="10" t="s">
         <v>116</v>
       </c>
@@ -3559,7 +3724,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="12" t="s">
         <v>119</v>
       </c>
@@ -3593,7 +3758,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -3627,7 +3792,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="12" t="s">
         <v>122</v>
       </c>
@@ -3673,7 +3838,7 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -3707,7 +3872,7 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="12" t="s">
         <v>111</v>
       </c>
@@ -3741,7 +3906,7 @@
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="12" t="s">
         <v>113</v>
       </c>
@@ -3973,11 +4138,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B661AD3-5B4B-4077-A5F4-64F826542876}">
-  <dimension ref="A1:M219"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4035,7 +4200,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4044,9 +4209,7 @@
       <c r="C2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="D2" s="17"/>
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
@@ -4071,19 +4234,17 @@
       <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="26"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="D3" s="17"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
         <v>173</v>
@@ -4103,16 +4264,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
@@ -4138,16 +4297,14 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
@@ -4177,16 +4334,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
@@ -4214,16 +4369,14 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
@@ -4253,7 +4406,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="12" t="s">
         <v>184</v>
       </c>
@@ -4272,16 +4425,14 @@
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
@@ -4309,16 +4460,14 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
@@ -4344,7 +4493,7 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="12" t="s">
         <v>177</v>
       </c>
@@ -4363,7 +4512,7 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="12" t="s">
         <v>181</v>
       </c>
@@ -4382,7 +4531,7 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="12" t="s">
         <v>144</v>
       </c>
@@ -4401,7 +4550,7 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="12" t="s">
         <v>187</v>
       </c>
@@ -4420,7 +4569,7 @@
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>188</v>
       </c>
@@ -4439,7 +4588,7 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="12" t="s">
         <v>190</v>
       </c>
@@ -4458,7 +4607,7 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="12" t="s">
         <v>192</v>
       </c>
@@ -4477,7 +4626,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="s">
         <v>154</v>
       </c>
@@ -4496,7 +4645,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="12" t="s">
         <v>194</v>
       </c>
@@ -4515,7 +4664,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="12" t="s">
         <v>197</v>
       </c>
@@ -4534,7 +4683,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="12" t="s">
         <v>198</v>
       </c>
@@ -4553,7 +4702,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="12" t="s">
         <v>200</v>
       </c>
@@ -4572,7 +4721,7 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10" t="s">
         <v>94</v>
       </c>
@@ -4604,7 +4753,9 @@
       <c r="L23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="23" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
@@ -4622,7 +4773,7 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="24" t="s">
         <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4661,70 +4812,60 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="7" t="s">
-        <v>19</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <v>20</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="9"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>400</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="6"/>
+      <c r="M27" s="18" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="16" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>162</v>
@@ -4732,17 +4873,17 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>100</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="18" t="s">
-        <v>163</v>
-      </c>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="12" t="s">
         <v>154</v>
       </c>
@@ -4755,7 +4896,9 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4">
+        <v>20</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="13"/>
@@ -4765,7 +4908,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4773,7 +4916,7 @@
         <v>152</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>13</v>
@@ -4799,10 +4942,12 @@
       <c r="L30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="10" t="s">
         <v>107</v>
       </c>
@@ -4810,7 +4955,7 @@
         <v>153</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>13</v>
@@ -4839,1202 +4984,1204 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="10" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="D33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="11" t="s">
+      <c r="I33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4">
+        <v>20</v>
+      </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="L34" s="13"/>
       <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="11" t="s">
+      <c r="I39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="10" t="s">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="G40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="11" t="s">
+      <c r="I40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="12" t="s">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C41" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="13" t="s">
+      <c r="I41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="M41" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="12" t="s">
+    <row r="42" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="13" t="s">
+      <c r="I42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="19" t="s">
+      <c r="M42" s="19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="12" t="s">
+    <row r="43" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="E43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="13" t="s">
+      <c r="I43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="20" t="s">
+      <c r="M43" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="12" t="s">
+    <row r="44" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="20"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="13" t="s">
+      <c r="I47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="10" t="s">
+      <c r="M47" s="4"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8" t="s">
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="11" t="s">
+      <c r="I48" s="8"/>
+      <c r="J48" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K48" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="27" t="s">
+      <c r="L48" s="11"/>
+      <c r="M48" s="23" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+    <row r="49" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="19"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="19"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="11" t="s">
+      <c r="C53" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="E53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="11" t="s">
+      <c r="I53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="10" t="s">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="11" t="s">
+      <c r="C54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="8" t="s">
+      <c r="E54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="11" t="s">
+      <c r="I54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="12" t="s">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="13" t="s">
+      <c r="C55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="13" t="s">
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="12" t="s">
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="13" t="s">
+      <c r="C56" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" s="13" t="s">
+      <c r="H56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="M56" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="12" t="s">
+    <row r="57" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="13" t="s">
+      <c r="C57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="4" t="s">
+      <c r="E57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="13" t="s">
+      <c r="I57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="13" t="s">
+      <c r="M57" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="13" t="s">
+    <row r="58" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="E58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="13" t="s">
+      <c r="I58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M52" s="13" t="s">
+      <c r="M58" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="12" t="s">
+    <row r="59" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="13" t="s">
+      <c r="C59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="E59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J53" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="13" t="s">
+      <c r="I59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="13" t="s">
+      <c r="M59" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="10" t="s">
+    <row r="60" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="11" t="s">
+      <c r="C60" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L54" s="11" t="s">
+      <c r="E60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="13" t="s">
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
+      <c r="E61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="13" t="s">
+      <c r="I61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D58" s="13" t="s">
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4">
+      <c r="E62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
         <v>20</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4">
-        <v>20</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
+      <c r="I63" s="4"/>
+      <c r="J63" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="K63" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="L63" s="13"/>
+      <c r="M63" s="19" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="13"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="J64" s="13"/>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
-      <c r="M64" s="4"/>
+      <c r="M64" s="19"/>
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M65" s="8"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="19"/>
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="D66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" s="13" t="s">
-        <v>27</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
       <c r="M66" s="4"/>
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="12" t="s">
-        <v>102</v>
-      </c>
+      <c r="A67" s="14"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
       <c r="M67" s="4"/>
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="B68" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="D68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
+        <v>20</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="13" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="M68" s="4"/>
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="4" t="s">
-        <v>173</v>
-      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4">
         <v>20</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="13" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="19" t="s">
-        <v>231</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M69" s="4"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="12" t="s">
-        <v>194</v>
+      <c r="A70" s="25"/>
+      <c r="B70" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M70" s="8"/>
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="12" t="s">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -6044,270 +6191,250 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
-      <c r="M71" s="19"/>
+      <c r="M71" s="4"/>
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="12" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
+        <v>220</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="M72" s="4"/>
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="13"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="4">
+        <v>20</v>
+      </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="J73" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="L73" s="13"/>
       <c r="M73" s="4"/>
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>116</v>
+      <c r="A74" s="25"/>
+      <c r="B74" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D74" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="4"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="4"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="4"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L74" s="11" t="s">
+      <c r="E79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M74" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="13" t="s">
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L75" s="13" t="s">
+      <c r="E80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M75" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M76" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K77" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
       <c r="M80" s="4"/>
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>12</v>
@@ -6319,10 +6446,10 @@
         <v>13</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>13</v>
@@ -6334,17 +6461,17 @@
         <v>17</v>
       </c>
       <c r="L81" s="13" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M81" s="4"/>
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>12</v>
@@ -6356,10 +6483,10 @@
         <v>13</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>13</v>
@@ -6368,15 +6495,15 @@
         <v>16</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="M82" s="4"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="12" t="s">
         <v>154</v>
       </c>
@@ -6402,12 +6529,10 @@
         <v>230</v>
       </c>
       <c r="L83" s="13"/>
-      <c r="M83" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="M83" s="19"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="12" t="s">
         <v>194</v>
       </c>
@@ -6428,7 +6553,7 @@
       <c r="M84" s="19"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="12" t="s">
         <v>234</v>
       </c>
@@ -6449,14 +6574,16 @@
       <c r="M85" s="19"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="12" t="s">
         <v>198</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D86" s="13"/>
+      <c r="D86" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -6467,7 +6594,7 @@
       <c r="L86" s="13"/>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="12"/>
       <c r="C87" s="4"/>
@@ -6483,64 +6610,502 @@
       <c r="M87" s="4"/>
     </row>
     <row r="88" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8">
+        <v>20</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" s="11"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4">
+        <v>20</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" s="13"/>
+    </row>
+    <row r="91" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M91" s="13"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M92" s="4"/>
+    </row>
+    <row r="93" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="95" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="4"/>
+    </row>
+    <row r="96" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="4"/>
+    </row>
+    <row r="97" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="25"/>
+      <c r="B97" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="4"/>
+    </row>
+    <row r="98" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="25"/>
+      <c r="B98" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M98" s="4"/>
+    </row>
+    <row r="99" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="25"/>
+      <c r="B99" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4">
+        <v>20</v>
+      </c>
+      <c r="I100" s="4"/>
+      <c r="J100" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L100" s="13"/>
+      <c r="M100" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="19"/>
+    </row>
+    <row r="102" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="25"/>
+      <c r="B102" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="19"/>
+    </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26"/>
+      <c r="B103" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14"/>
+      <c r="B105" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="13" t="s">
+      <c r="C105" s="4"/>
+      <c r="D105" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="4" t="s">
+      <c r="E105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I88" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="13" t="s">
+      <c r="I105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L88" s="13" t="s">
+      <c r="L105" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6648,16 +7213,33 @@
     <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A80:A86"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A25:A33"/>
     <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="A79:A86"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A68:A77"/>
+    <mergeCell ref="A25:A37"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
